--- a/medicine/Psychotrope/Château_Haut_Chatain/Château_Haut_Chatain.xlsx
+++ b/medicine/Psychotrope/Château_Haut_Chatain/Château_Haut_Chatain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Haut_Chatain</t>
+          <t>Château_Haut_Chatain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Château Haut Chatain se situe sur la commune de Néac, dans le prolongement du plateau de Pomerol, au lieu-dit Chatain en Gironde. Il bénéficie de sols et de sous-sols très différents, répartis sur l’AOC Lalande-de-Pomerol, l'AOC Montagne-saint-émilion.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Haut_Chatain</t>
+          <t>Château_Haut_Chatain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>L'histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est en 1912 que Pierre Henri Lacoste s’est installé vigneron sur les terres du Domaine du Chatain à Néac. Auparavant transporteur de vin, il apportait les barriques de vin à bord de sa charrette attelée à son cheval jusqu’au port de Libourne.
 De leur côté, Marguerite et Georges Rivière concrétisèrent leur métier de vigneron en achetant des terres et des vignes aux Graves de Lavergne (commune de Néac) en 1917.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Haut_Chatain</t>
+          <t>Château_Haut_Chatain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Le terroir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une superficie de 12 hectares, le vignoble est planté à 80 % de merlot, 10 % de cabernet franc et 10 % de cabernet sauvignon à raison de 6 000 pieds à l’hectare de vignes d'un âge moyen de 40 ans. Elles sont conduites en taille Guyot simple.
 Le terroir est composé de sols argilo-calcaire très argileux au sud-est de Néac en bordure de Saint-Émilion, ainsi que de graves avec des argiles en profondeur sur le côté ouest de Néac. 
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Haut_Chatain</t>
+          <t>Château_Haut_Chatain</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Les vinifications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les raisins sont récoltés manuellement, éraflés puis triés sur une table vibrante à soufflerie qui ne garde que les meilleurs raisins ainsi que les meilleurs jus. Les cuves sont en inox thermo-régulées.
 La vinification comporte une macération pré-fermentaire à froid pendant quelques jours pour extraire la couleur, puis une fermentation alcoolique à 28 degrés durant une semaine 
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Haut_Chatain</t>
+          <t>Château_Haut_Chatain</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Les vins</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>AOC Lalande-de-pomerol
 Château Haut Châtain - Cuvée Prestige
@@ -636,7 +656,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Haut_Chatain</t>
+          <t>Château_Haut_Chatain</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -654,7 +674,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel du Château Haut Chatain
  Portail de la vigne et du vin   Portail de la Gironde                    </t>
